--- a/data/clean_data/entitlement_info.xlsx
+++ b/data/clean_data/entitlement_info.xlsx
@@ -1013,10 +1013,10 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1125,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1155,7 +1155,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1214,7 +1214,7 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1840,11 +1840,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="606538e0-4fd2-4bd9-9af4-a95c60ef3173" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2069,27 +2070,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="606538e0-4fd2-4bd9-9af4-a95c60ef3173" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6091BD-4FB5-4C0B-BCDC-79A0790F7C16}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94D196EE-F02E-48A1-9BE8-C36A94965277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="057ef580-340b-4b07-8036-e42fb214c43d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="606538e0-4fd2-4bd9-9af4-a95c60ef3173"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2114,9 +2105,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94D196EE-F02E-48A1-9BE8-C36A94965277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6091BD-4FB5-4C0B-BCDC-79A0790F7C16}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="057ef580-340b-4b07-8036-e42fb214c43d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="606538e0-4fd2-4bd9-9af4-a95c60ef3173"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>